--- a/data/outputs/management_altmetric/107.xlsx
+++ b/data/outputs/management_altmetric/107.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE95"/>
+  <dimension ref="A1:CF95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1023,6 +1028,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1264,6 +1272,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1511,6 +1522,9 @@
         <v>0</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1758,6 +1772,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2009,6 +2026,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2256,6 +2276,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2509,6 +2532,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2752,6 +2778,9 @@
         <v>0</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2995,6 +3024,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3245,6 +3277,9 @@
       </c>
       <c r="CE11" t="n">
         <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>24.75</v>
       </c>
     </row>
     <row r="12">
@@ -3493,6 +3528,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3738,6 +3776,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3981,6 +4022,9 @@
         <v>0</v>
       </c>
       <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4224,6 +4268,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4469,6 +4516,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4722,6 +4772,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4979,6 +5032,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5228,6 +5284,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5477,6 +5536,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5726,6 +5788,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5983,6 +6048,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6232,6 +6300,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6477,6 +6548,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6726,6 +6800,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6975,6 +7052,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7232,6 +7312,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7481,6 +7564,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7730,6 +7816,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -7977,6 +8066,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8224,6 +8316,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8469,6 +8564,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8720,6 +8818,9 @@
         <v>0</v>
       </c>
       <c r="CE33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8965,6 +9066,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9210,6 +9314,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9467,6 +9574,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9720,6 +9830,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9977,6 +10090,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10226,6 +10342,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10479,6 +10598,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10724,6 +10846,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10985,6 +11110,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11234,6 +11362,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11487,6 +11618,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11746,6 +11880,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11989,6 +12126,9 @@
         <v>0</v>
       </c>
       <c r="CE46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12232,6 +12372,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12477,6 +12620,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12724,6 +12870,9 @@
         <v>0</v>
       </c>
       <c r="CE49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12967,6 +13116,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13214,6 +13366,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13459,6 +13614,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13712,6 +13870,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13961,6 +14122,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14204,6 +14368,9 @@
         <v>0</v>
       </c>
       <c r="CE55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14447,6 +14614,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14698,6 +14868,9 @@
         <v>0</v>
       </c>
       <c r="CE57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14941,6 +15114,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15202,6 +15378,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15449,6 +15628,9 @@
         <v>0</v>
       </c>
       <c r="CE60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15692,6 +15874,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15933,6 +16118,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16176,6 +16364,9 @@
         <v>0</v>
       </c>
       <c r="CE63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16403,6 +16594,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16660,6 +16854,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -16907,6 +17104,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17150,6 +17350,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17393,6 +17596,9 @@
         <v>0</v>
       </c>
       <c r="CE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17636,6 +17842,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -17887,6 +18096,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18130,6 +18342,9 @@
         <v>0</v>
       </c>
       <c r="CE71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18373,6 +18588,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18632,6 +18850,9 @@
       <c r="CE73" t="n">
         <v>1</v>
       </c>
+      <c r="CF73" t="n">
+        <v>1.35</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -18893,6 +19114,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19138,6 +19362,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19388,6 +19615,9 @@
       </c>
       <c r="CE76" t="n">
         <v>0</v>
+      </c>
+      <c r="CF76" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="77">
@@ -19634,6 +19864,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -19887,6 +20120,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20136,6 +20372,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20381,6 +20620,9 @@
       <c r="CE80" t="n">
         <v>0</v>
       </c>
+      <c r="CF80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -20630,6 +20872,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -20879,6 +21124,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -21122,6 +21370,9 @@
         <v>0</v>
       </c>
       <c r="CE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21365,6 +21616,9 @@
       <c r="CE84" t="n">
         <v>0</v>
       </c>
+      <c r="CF84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -21606,6 +21860,9 @@
       <c r="CE85" t="n">
         <v>0</v>
       </c>
+      <c r="CF85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -21847,6 +22104,9 @@
       <c r="CE86" t="n">
         <v>0</v>
       </c>
+      <c r="CF86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -22100,6 +22360,9 @@
       <c r="CE87" t="n">
         <v>0</v>
       </c>
+      <c r="CF87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -22346,6 +22609,9 @@
       </c>
       <c r="CE88" t="n">
         <v>0</v>
+      </c>
+      <c r="CF88" t="n">
+        <v>2.85</v>
       </c>
     </row>
     <row r="89">
@@ -22588,6 +22854,9 @@
       <c r="CE89" t="n">
         <v>0</v>
       </c>
+      <c r="CF89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -22837,6 +23106,9 @@
       <c r="CE90" t="n">
         <v>0</v>
       </c>
+      <c r="CF90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -23084,6 +23356,9 @@
         <v>0</v>
       </c>
       <c r="CE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23327,6 +23602,9 @@
       <c r="CE92" t="n">
         <v>0</v>
       </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -23576,6 +23854,9 @@
       <c r="CE93" t="n">
         <v>0</v>
       </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -23827,6 +24108,9 @@
         <v>0</v>
       </c>
       <c r="CE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24054,6 +24338,9 @@
       <c r="CE95" t="n">
         <v>0</v>
       </c>
+      <c r="CF95" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
